--- a/medicine/Enfance/Jochen_Gerner/Jochen_Gerner.xlsx
+++ b/medicine/Enfance/Jochen_Gerner/Jochen_Gerner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jochen Gerner, né le 12 septembre 1970 à Nancy, est un auteur de bande dessinée français.
 </t>
@@ -511,16 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de l'École nationale supérieure d'art de Nancy où il étudie de 1988 à 1993, Jochen Gerner reçoit en 1990 l'Alph'Art scolaire au festival d'Angoulême alors qu'il est encore étudiant[1], et se fait ainsi remarquer par Jean-Christophe Menu, Lewis Trondheim et David B., futurs éditeurs de L'Association. En 1993, Jochen Gerner rejoint des collectifs d'auteurs dont le collectif expérimental OuBaPo (Ouvroir de bande dessinée potentielle), au côté de François Ayroles, Anne Baraou, Gilles Ciment, Thierry Groensteen, Patrice Killoffer, Étienne Lécroart, Jean-Christophe Menu et Lewis Trondheim, collectif pour lequel il est l'un des plus dynamiques artisans et le plus fidèle promoteur. 
-De la presse à l'édition jeunesse
-C'est surtout à ses qualités d'illustrateur qu'il doit ses premiers succès publics, notamment grâce à ses publications dans la presse. Le grand public identifiera rapidement l'auteur aux strips publiés dans Les Inrockuptibles (compilés dans Snark Park), mais les plus grands hebdomadaires français (Libération, Le Monde) lui commanderont également des illustrations, tout comme à l'international (The New York Times) qui lui permettront un séjour d'un an à New York[1].
-Le trait minimaliste de l'auteur a également vite attiré les éditeurs jeunesse. Même s'il participe à de nombreuses expositions de salons de littérature jeunesse, c'est la publication du Petit Monde 1996 qui serra la plus décisive en la rencontre du directeur artistique et auteur, créateur de la collection jeunesse du Rouergue, Olivier Douzou. Il deviendra un des principaux illustrateurs des Éditions du Rouergue, alors reconnu pour apporter un renouveau dans l'illustration jeunesse. Il travaillera ainsi au côté de ses camarades nancéiens (Frédéric Rey, Frédérique Bertrand, Sylvie Bessard), mais aussi José Parrondo ou encore Nicolas Mahler. Il y publiera ses ouvrages en tant qu'auteur (Harry Staute, Berlin (Jochenplatz)) jusqu'au départ d'Olivier Douzou en 2001, et en tant qu'illustrateur de la collection roman doAdo jusqu'à la fusion de l'éditeur avec Actes Sud en 2004. Si ses publications jeunesse restent moins nombreuses depuis, aujourd'hui Gerner peut profiter d'avoir travaillé avec les plus grands éditeurs du domaine (Milan, Nathan, Gallimard...).
-De l'art dans la bande dessinée
-En 2001, Olivier Douzou cofonde la maison d'édition L'Ampoule, et invite Jochen à y éditer TNT en Amérique. Si jusque-là les travaux de publications et les exercices graphiques étaient bien plus séparés chez l'auteur, l'ouvrage estampillé OuBaPo marquera les liens entre bande dessinée et art contemporain. L'auteur est alors repéré par la galerie Anne Barrault de Paris pour ces expérimentations graphiques. La galerie fait d'ailleurs depuis de nombreuses expositions en parallèle aux ouvrages publiés. Et alimentant le circuit de l'art contemporain, elle lui permettra (dès 2003) de vendre via la Foire internationale d'art contemporain (FIAC) ses œuvres au Fonds national d'art contemporain (FNAC) du ministère de la Culture, aboutissement d'une reconnaissance du milieu de l'art contemporain. Jochen Gerner participe dès lors à de nombreuses expositions collectives et se voit offrir de véritables expositions personnelles. 
-Après un second ouvrage (En ligne(s)) et le départ d'Olivier Douzou) de L'Ampoule, Gerner est depuis édité par L'Association avec des publications très diverses (documentaire Le saint patron, illustration de critiques médias Contre la bande-dessinée ou encore sous forme de carnet d'illustrations Branchages[2]), et s'investit dans toutes les démarches mettant en avant l'aspect artistique de la bande-dessinée au sein de la structure (revue Eprouvette). Très naturellement à sa place au sein de nombreux collectifs (OuBaPo, Arts Factory/La Superette...) il aime expérimenter, mettre en œuvre une critique du langage et de l'image tout en détournant les codes visuels. Il dessine sur des pages de journaux, des listes de noms, du papier peint, des pages de catalogues, des manuels scolaires, d'anciennes bandes dessinées, ou plus simplement dans des cases. Il est aujourd'hui représenté par la galerie Anne Barrault. 
-Jochen Gerner est lauréat du prix Drawing Now (Paris) en 2016.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de l'École nationale supérieure d'art de Nancy où il étudie de 1988 à 1993, Jochen Gerner reçoit en 1990 l'Alph'Art scolaire au festival d'Angoulême alors qu'il est encore étudiant, et se fait ainsi remarquer par Jean-Christophe Menu, Lewis Trondheim et David B., futurs éditeurs de L'Association. En 1993, Jochen Gerner rejoint des collectifs d'auteurs dont le collectif expérimental OuBaPo (Ouvroir de bande dessinée potentielle), au côté de François Ayroles, Anne Baraou, Gilles Ciment, Thierry Groensteen, Patrice Killoffer, Étienne Lécroart, Jean-Christophe Menu et Lewis Trondheim, collectif pour lequel il est l'un des plus dynamiques artisans et le plus fidèle promoteur. 
 </t>
         </is>
       </c>
@@ -546,16 +553,98 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De la presse à l'édition jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est surtout à ses qualités d'illustrateur qu'il doit ses premiers succès publics, notamment grâce à ses publications dans la presse. Le grand public identifiera rapidement l'auteur aux strips publiés dans Les Inrockuptibles (compilés dans Snark Park), mais les plus grands hebdomadaires français (Libération, Le Monde) lui commanderont également des illustrations, tout comme à l'international (The New York Times) qui lui permettront un séjour d'un an à New York.
+Le trait minimaliste de l'auteur a également vite attiré les éditeurs jeunesse. Même s'il participe à de nombreuses expositions de salons de littérature jeunesse, c'est la publication du Petit Monde 1996 qui serra la plus décisive en la rencontre du directeur artistique et auteur, créateur de la collection jeunesse du Rouergue, Olivier Douzou. Il deviendra un des principaux illustrateurs des Éditions du Rouergue, alors reconnu pour apporter un renouveau dans l'illustration jeunesse. Il travaillera ainsi au côté de ses camarades nancéiens (Frédéric Rey, Frédérique Bertrand, Sylvie Bessard), mais aussi José Parrondo ou encore Nicolas Mahler. Il y publiera ses ouvrages en tant qu'auteur (Harry Staute, Berlin (Jochenplatz)) jusqu'au départ d'Olivier Douzou en 2001, et en tant qu'illustrateur de la collection roman doAdo jusqu'à la fusion de l'éditeur avec Actes Sud en 2004. Si ses publications jeunesse restent moins nombreuses depuis, aujourd'hui Gerner peut profiter d'avoir travaillé avec les plus grands éditeurs du domaine (Milan, Nathan, Gallimard...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>De l'art dans la bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Olivier Douzou cofonde la maison d'édition L'Ampoule, et invite Jochen à y éditer TNT en Amérique. Si jusque-là les travaux de publications et les exercices graphiques étaient bien plus séparés chez l'auteur, l'ouvrage estampillé OuBaPo marquera les liens entre bande dessinée et art contemporain. L'auteur est alors repéré par la galerie Anne Barrault de Paris pour ces expérimentations graphiques. La galerie fait d'ailleurs depuis de nombreuses expositions en parallèle aux ouvrages publiés. Et alimentant le circuit de l'art contemporain, elle lui permettra (dès 2003) de vendre via la Foire internationale d'art contemporain (FIAC) ses œuvres au Fonds national d'art contemporain (FNAC) du ministère de la Culture, aboutissement d'une reconnaissance du milieu de l'art contemporain. Jochen Gerner participe dès lors à de nombreuses expositions collectives et se voit offrir de véritables expositions personnelles. 
+Après un second ouvrage (En ligne(s)) et le départ d'Olivier Douzou) de L'Ampoule, Gerner est depuis édité par L'Association avec des publications très diverses (documentaire Le saint patron, illustration de critiques médias Contre la bande-dessinée ou encore sous forme de carnet d'illustrations Branchages), et s'investit dans toutes les démarches mettant en avant l'aspect artistique de la bande-dessinée au sein de la structure (revue Eprouvette). Très naturellement à sa place au sein de nombreux collectifs (OuBaPo, Arts Factory/La Superette...) il aime expérimenter, mettre en œuvre une critique du langage et de l'image tout en détournant les codes visuels. Il dessine sur des pages de journaux, des listes de noms, du papier peint, des pages de catalogues, des manuels scolaires, d'anciennes bandes dessinées, ou plus simplement dans des cases. Il est aujourd'hui représenté par la galerie Anne Barrault. 
+Jochen Gerner est lauréat du prix Drawing Now (Paris) en 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Albums
-Le Petit Théâtre d’Olrik, éd. Archives Internationales, coll. « Portfolio », 1993.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Petit Théâtre d’Olrik, éd. Archives Internationales, coll. « Portfolio », 1993.
 Boîte de vitesses et viande en boîte, L'Association, coll. « Patte de mouche », 1995.
 Courts-circuits géographiques, L'Association, coll. « Ciboulette », 1997.
-Snark Park, Automne 67, 1997[3].
+Snark Park, Automne 67, 1997.
 Jochen Gerner Tout Nu, éditions Moreno, 1999.
 (Un Temps.), Éditions du Centre Georges-Pompidou, 2000. Réédition coll. « Mimolette », L'Association, 2001 (issu du catalogue de l’exposition le Temps, vite).
 La Ménagerie intérieure (les grandes surfaces no.1), éditions « Moreno », 2000.
@@ -580,23 +669,132 @@
 Repères, 2 000 dessins pour comprendre le monde, Casterman, 2017
 Repères 2, 2 000 nouveaux dessins pour comprendre le monde, Casterman, 2020
 Chiens : Inventaire graphique authentique et fictif, B42, 2023
-Repères 3, 2 000 dessins essentiels pour comprendre le monde, Casterman, 2024
-Illustration
-« Le Désastre », in Encyclopédie Antipodiste vol.5, texte de Mireille De La Rue d'après George Psalmanazar, Les 4 mers, 1996.
-Le livre de cuisine de la Série Noire, texte d'Arlette Lauterbach et Alain Raybaud ; préface de Patrick Raynal, Éditions Gallimard, coll. « Série noire », 1999.
-Publications jeunesse
-Albums
-Le Petit Monde - Journal De L'année 1996, Rouergue, 1997.
+Repères 3, 2 000 dessins essentiels pour comprendre le monde, Casterman, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Le Désastre », in Encyclopédie Antipodiste vol.5, texte de Mireille De La Rue d'après George Psalmanazar, Les 4 mers, 1996.
+Le livre de cuisine de la Série Noire, texte d'Arlette Lauterbach et Alain Raybaud ; préface de Patrick Raynal, Éditions Gallimard, coll. « Série noire », 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Petit Monde - Journal De L'année 1996, Rouergue, 1997.
 Tsé Tsé, avec Lynda Corazza, Frédérique Bertrand, Olivier Douzou, Rouergue, 1998.
 Prospectus Box, avec Frédéric Rey, Rouergue, coll. « Toutazimute », 1998.
 Harry Staute, Rouergue, coll. « 12x12 », 1999.
 www.esperenoel.com, texte d'Olivier Douzou, Rouergue, 1999.
 Berlin (Jochenplatz), Rouergue, coll. « Toutazimute », 2000.
 Atchoum !, Thierry Magnier, n°47, coll. « Tête de lard », 2005.
-Coloriage!, Milan jeunesse, 2006[4].
-Machin-truc, Les Fourmis rouges, 2013.
-Illustration
-Les Quatre Loups, texte d'Alain Gaussel, Syros/la Découverte, coll. « Paroles de conteurs », 1995.
+Coloriage!, Milan jeunesse, 2006.
+Machin-truc, Les Fourmis rouges, 2013.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Quatre Loups, texte d'Alain Gaussel, Syros/la Découverte, coll. « Paroles de conteurs », 1995.
 Mes parents se séparent, texte de Martine Azoulai, Nathan, coll. « États d'âme », 1995.
 Oumtata à Paris, texte de Marie Nimier, Nathan, coll. « Histoires d'éléphants », 1997.
 Grosses têtes et petits pieds, texte de Claude Bourgeyx, Nathan, 1998. rééd. 2002 et 2006.
@@ -610,9 +808,47 @@
 Gagner sa vie, est-ce la perdre ?, texte de Guillaume Le Blanc, Éditions Gallimard jeunesse, coll. « Chouette ! Penser », 2008.
 Ludo et ses amis 1 : Méthode de français, texte de Corinne Marchois, Didier, 2008.
 C'est mathématique !, texte de Carina Louart et Florence Pinaud, Actes Sud junior, 2014.
-Aïda N'Diaye, Ai-je vraiment du mérite ?, Paris, Éditions Gallimard, coll. « Philophile ! », 2022.
-Couverture
-Cité-nique-le-ciel, texte de Guillaume Guéraud, Rouergue, coll. « doAdo », 1999.
+Aïda N'Diaye, Ai-je vraiment du mérite ?, Paris, Éditions Gallimard, coll. « Philophile ! », 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Publications jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Couverture</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cité-nique-le-ciel, texte de Guillaume Guéraud, Rouergue, coll. « doAdo », 1999.
 Chassé-croisé, texte de Guillaume Guéraud, Rouergue, coll. « doAdo », 1999.
 Les chiens écrasés, texte de Guillaume Guéraud, Rouergue, coll. « doAdo », 1999.
 Coup de sabre, texte de Guillaume Guéraud, Rouergue, coll. « doAdo », 2000.
@@ -627,22 +863,124 @@
 Kilomètre zéro, texte de Vincent Cuvellier, Rouergue, coll. « doAdo », 2002.
 Terminus Noël, texte de Sébastien Joanniez, Rouergue, coll. « doAdo », 2002.
 L’autre-cœur, texte d'Irène Cohen-Janca, Rouergue, coll. « doAdo », 2003.
-Voilà pourquoi les vieillards sourient, texte de Marie-Sophie Vermot, Rouergue, coll. « doAdo », 2003.
-Illustration pour la presse
-Illustrations d'articles pour Le Monde, d'éditos dans L'Expansion, de couvertures de L'Usine nouvelle.
-Revue et fanzine
-R de réel #21, Volume UVW.
+Voilà pourquoi les vieillards sourient, texte de Marie-Sophie Vermot, Rouergue, coll. « doAdo », 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Illustration pour la presse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Illustrations d'articles pour Le Monde, d'éditos dans L'Expansion, de couvertures de L'Usine nouvelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Revue et fanzine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>R de réel #21, Volume UVW.
 Fusée, numéros 2 à 5, 11, automne 1997.
 Lapin, numéros 6 à 14, 16, 21, 22, 25, 26, 28, 33 à 35, L'Association, de 1994 à 2006.
 Le Phacochère, n°25, Groinge, 1998.
 L'Éprouvette, L'Association, 2006-2007.
-Arkitip, n°39, spécial 10 ans de Colette, 2007[5].
+Arkitip, n°39, spécial 10 ans de Colette, 2007.
 XXI, n°03, 2008.
 Stapazin, n°67.
 OuPus 1, Cymbalum Pataphysicum (L'Fxpectateur no.14), L'Association, 1997 ; Les vacances de l'OuBaPo, OuPus 3, Libération, L'Association, 2000 ; OuPus 2, L'Association, 2003 ; Oupus 4, L'Association, 2005.
-collectif Overwriting, Brugger/La Cinquième Couche, 2010.
-Participations
-Périphéries, L'Association, 1994.
+collectif Overwriting, Brugger/La Cinquième Couche, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Périphéries, L'Association, 1994.
 Raaan, L'Association, 1994.
 Nos Vaches, Un sourire de toi et j’quitte ma mère, 1998.
 (en) Mother Goose Around the World (Mother Goose Ser), William H. Sadlier (en), 1999.
@@ -660,106 +998,215 @@
 Toy Comix, L'Association, 2007.
 Je voudrais pas crever, texte de Boris Vian, Les Allusifs, 2008&lt;.
 Le Petit Larousse 2010, Larousse, 2009.
-Rock Strips, Flammarion, 2009[6].
-Comicscope, de David Rault, L'Apocalypse, 2013.
-Affiche
-7e Rencontres de la bande dessinée BD à Bastia, Bastia, 2000.
+Rock Strips, Flammarion, 2009.
+Comicscope, de David Rault, L'Apocalypse, 2013.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Affiche</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>7e Rencontres de la bande dessinée BD à Bastia, Bastia, 2000.
 5e rencontres de la bande dessinée d'auteur et de l'édition indépendante Periscopages, Rennes, 2005.
 5e Laterna magica, Marseille, 2008.
-Colloque Conteners, Paris, 2008.
-Varia
-Image pour le portfolio pour les 25 ans de la librairie nancéienne La Parenthèse.
-Étiquette de vin et étiquette d'époisses, Les artistes en cave, 1999[7].
-Jeu du Jars, jeu de l'oie offert en supplément au Volume « J » de la revue R de Réel, 2001[8].
-Oumupo 1, illustration du livret et LP de The Third Eye Foundation, Ici d'ailleurs, 2004[9].
+Colloque Conteners, Paris, 2008.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Varia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Image pour le portfolio pour les 25 ans de la librairie nancéienne La Parenthèse.
+Étiquette de vin et étiquette d'époisses, Les artistes en cave, 1999.
+Jeu du Jars, jeu de l'oie offert en supplément au Volume « J » de la revue R de Réel, 2001.
+Oumupo 1, illustration du livret et LP de The Third Eye Foundation, Ici d'ailleurs, 2004.
 Les animaux de la jungle, illustration du livret cd, Éditions Gallimard Jeunesse, 2005.
 Scroubabble, L'Association.
 Agenda 2008 année bissextile, texte de Christian Dubuis Santini, Complicites/L'Ampoule, 2007.
-Eyjafjöll, faïence coulée émaillée, 21,5 × 18 cm, 12 exemplaires, Nancy, Éditions Ergastule, 2011[10].
-Signalétique de la librairie La Parenthèse, Nancy, 2002[11].
-Jeu de Loup, Salon du livre et de la presse jeunesse, Montreuil, 2008 : jeu à partir de trois histoires de loup (Le Petit Chaperon rouge, Les Trois Petits Cochons, Pierre et le Loup)[12].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jochen_Gerner</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Eyjafjöll, faïence coulée émaillée, 21,5 × 18 cm, 12 exemplaires, Nancy, Éditions Ergastule, 2011.
+Signalétique de la librairie La Parenthèse, Nancy, 2002.
+Jeu de Loup, Salon du livre et de la presse jeunesse, Montreuil, 2008 : jeu à partir de trois histoires de loup (Le Petit Chaperon rouge, Les Trois Petits Cochons, Pierre et le Loup).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1990 : Alph'Art de la bande dessinée scolaire lors du festival international de la bande dessinée d'Angoulême[1].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1990 : Alph'Art de la bande dessinée scolaire lors du festival international de la bande dessinée d'Angoulême.
 2008 : Contre la bande dessinée, primé au concours Les plus beaux livres français, organisé par le Cnap.
-2008 : Artastic!, médaille de bronze catégorie livres d'activités du Moonbeam Children's Book[13].
+2008 : Artastic!, médaille de bronze catégorie livres d'activités du Moonbeam Children's Book.
 2009 : Prix de l’École supérieure de l’image, festival international de la bande dessinée d'Angoulême.
-2016 : Prix Drawing Now, Paris[14].
-2019 : Prix du Livre Grand Est, catégorie Livre d'artiste, pour Stockholm, éditions Be-pôles[15].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jochen_Gerner</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+2016 : Prix Drawing Now, Paris.
+2019 : Prix du Livre Grand Est, catégorie Livre d'artiste, pour Stockholm, éditions Be-pôles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Personnelles
-Jochen Gerner, galerie Impressions, La Chaux-de-Fonds, Suisse, 2003.
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Personnelles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jochen Gerner, galerie Impressions, La Chaux-de-Fonds, Suisse, 2003.
 TNT en Amérique, BD à Bastia, 2003.
-Intra-Muros, galerie Anne Barrault, Paris, 2006[16].
+Intra-Muros, galerie Anne Barrault, Paris, 2006.
 Jochen Gerner, Orangerie du Thabor, festival Periscopages, Rennes, 2006.
 Jochen Gerner, galeria Miquel Alzueta, Barcelone, Espagne, 2006.
 Chemin des images. Images d'Épinal de Jochen Gerner, musée de l'image, Épinal, 2008.
 Contre la bande dessinée, Le Monte-en-l'air, Paris, l'Escaut, Bruxelles, 2008.
-Science Plastique, Rue Montgrand (galerie de l'École supérieure des beaux-arts de Marseille), Marseille, 2008[17].
-Home, Musée d'art moderne Grand-Duc Jean, Luxembourg, 2009[18].
-Panoramica, galerie Anne Barrault, Paris, jusqu'au 31 octobre 2009[19].
+Science Plastique, Rue Montgrand (galerie de l'École supérieure des beaux-arts de Marseille), Marseille, 2008.
+Home, Musée d'art moderne Grand-Duc Jean, Luxembourg, 2009.
+Panoramica, galerie Anne Barrault, Paris, jusqu'au 31 octobre 2009.
 École européenne supérieure de l'image, Angoulême, 2010.
-Perdre le Nord, Studio Fotokino, Marseille, 2013[20].
-Second Plan, galerie Anne Barrault, Paris, 2013[21].
-Material Impreso, galerie Et Hall, Barcelone, Espagne, 2014[22].
-Pantoum phantom, H2M, hôtel Marron de Meillonnas, Bourg-en-Bresse, 2014.
-Collectives
-Figures Futur, Salon du livre et de la presse jeunesse, Montreuil, 1994.
+Perdre le Nord, Studio Fotokino, Marseille, 2013.
+Second Plan, galerie Anne Barrault, Paris, 2013.
+Material Impreso, galerie Et Hall, Barcelone, Espagne, 2014.
+Pantoum phantom, H2M, hôtel Marron de Meillonnas, Bourg-en-Bresse, 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Collectives</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Figures Futur, Salon du livre et de la presse jeunesse, Montreuil, 1994.
 D'un Regard Neuf, Institut suisse de littérature pour la jeunesse, Zurich, Suisse, 1995.
 Biennale d’illustration, Bratislava, Slovaquie, 1996.
 On a marché sur des œufs, BD à Bastia, 1998.
@@ -786,7 +1233,7 @@
 L’Amour des Images, musée de l'image, Épinal, 2006.
 Graphic session /01, espace éof, Paris, 2006.
 My 2007, Colette, Paris, 2007.
-Toy Comix, Musée des Arts décoratifs de Paris, 2007[23].
+Toy Comix, Musée des Arts décoratifs de Paris, 2007.
 Merveilleux ! D'après nature, château de Malbrouck, 2007.
 Play, Salon du livre et de la presse jeunesse, Montreuil, 2007.
 Cité du livre, Aix-en-Provence, 2007.
@@ -800,24 +1247,58 @@
 Médiathèque François-Mitterrand, Lorient, 2009.
 Latitude 48° 34' 52, Longitude 7° 45' 33, La Chaufferie (galerie de l'École supérieure des arts décoratifs de Strasbourg), Strasbourg, 2009.
 Comic Strip, musée de Sérignan, 2009.
-Collections d'auteurs, La Parenthèse, Nancy, 2009[24].
+Collections d'auteurs, La Parenthèse, Nancy, 2009.
 Cet été, je ne partirai pas en vacances, Point Éphémère, Paris, 2009.
-Vraoum !, La Maison rouge, fondation Antoine-de-Galbert, Paris, 2009[25].
+Vraoum !, La Maison rouge, fondation Antoine-de-Galbert, Paris, 2009.
 Ni tout à fait la même, ni tout à fait une autre, musée de l'image, Épinal, jusqu'au 11 novembre 2009
 Traits Complices, galerie Béatrice Binoche, Saint-Denis La Réunion, jusqu'au 14 novembre 2009.
-réson&amp;nces (préfiguration), Cité internationale de la bande dessinée et de l'image, Angoulême, jusqu'au 3 janvier 2010[26].
+réson&amp;nces (préfiguration), Cité internationale de la bande dessinée et de l'image, Angoulême, jusqu'au 3 janvier 2010.
 Res publica, musée d'art moderne (en), Moscou, Russie, 2010.
-100 pour 100, Cité internationale de la bande dessinée et de l'image, Angoulême, 28 janvier au 30 mars 2010. Alhondiga, Bilbao, 2010[27]. Bibliothèque Forney, Paris, 2010.
+100 pour 100, Cité internationale de la bande dessinée et de l'image, Angoulême, 28 janvier au 30 mars 2010. Alhondiga, Bilbao, 2010. Bibliothèque Forney, Paris, 2010.
 Mappamundi, hôtel des arts, Toulon, 2013.
 L'arbre de vie, collège des Bernardins, Paris, 2013.
 Alternatives, bandes dessinées contemporaines, Maison des arts Georges-Pompidou, Cajarc, 2013.
 De leur temps 4 (ADIAF), Hangar à bananes, Nantes, 2013.
 L'Art et la guerre, musée des beaux-arts de Nancy, 2014.
-After the comics, musée d'art contemporain Erarta, Saint-Pétersbourg, Russie, 2014[28].
+After the comics, musée d'art contemporain Erarta, Saint-Pétersbourg, Russie, 2014.
 Alpha, bêta, carta, parc culturel, Rentilly, 2014.
-Dialogue de dessin, avec Guillaume Chauchat, Festival Central Vapeur, Strasbourg, 2017[29].
-Foire d'art contemporain
-Foire d'art contemporain, Nîmes, 2004.
+Dialogue de dessin, avec Guillaume Chauchat, Festival Central Vapeur, Strasbourg, 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Foire d'art contemporain</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Foire d'art contemporain, Nîmes, 2004.
 Foire d'art contemporain, Strasbourg, 2005.
 FIAC, Paris, galerie Anne Barrault, 2006.
 PULSE, New York, galerie Anne Barrault, 2006.
@@ -827,33 +1308,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jochen_Gerner</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jochen_Gerner</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Scène</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Conception artistique décors et costumes pour Affaire étrangère, opéra comique en un acte et douze tableaux de Valentin Villenave d’après Politique étrangère[30].</t>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Conception artistique décors et costumes pour Affaire étrangère, opéra comique en un acte et douze tableaux de Valentin Villenave d’après Politique étrangère.</t>
         </is>
       </c>
     </row>
